--- a/Data/ZZ500.xlsx
+++ b/Data/ZZ500.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\adhc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173DC35E-E08F-4CE7-8E84-73851E7A6334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4BC0BB-14E9-4F50-B831-C015115B7C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45885" yWindow="-9015" windowWidth="21585" windowHeight="11295" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
+    <workbookView xWindow="-43185" yWindow="-8670" windowWidth="21585" windowHeight="11295" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,6 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,11 +109,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0227A6-6518-472F-8478-AE6AB0E5A537}">
-  <dimension ref="A1:J2549"/>
+  <dimension ref="A1:J2560"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+    <sheetView tabSelected="1" topLeftCell="A2544" workbookViewId="0">
+      <selection activeCell="I2559" sqref="I2559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -82007,6 +82017,358 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2550" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2550" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B2550" s="3">
+        <v>6042.3122000000003</v>
+      </c>
+      <c r="C2550" s="3">
+        <v>23.256599426269531</v>
+      </c>
+      <c r="D2550" s="3">
+        <v>1.8306000232696533</v>
+      </c>
+      <c r="E2550">
+        <v>1.6595547709879215</v>
+      </c>
+      <c r="F2550" s="3">
+        <v>11307590500</v>
+      </c>
+      <c r="G2550" s="3">
+        <v>153065229522</v>
+      </c>
+      <c r="H2550" s="3">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="I2550">
+        <v>4</v>
+      </c>
+      <c r="J2550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2551" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B2551" s="3">
+        <v>6055.2577000000001</v>
+      </c>
+      <c r="C2551" s="3">
+        <v>23.301300048828125</v>
+      </c>
+      <c r="D2551" s="3">
+        <v>1.8345999717712402</v>
+      </c>
+      <c r="E2551">
+        <v>1.6563060387381361</v>
+      </c>
+      <c r="F2551" s="3">
+        <v>10558376500</v>
+      </c>
+      <c r="G2551" s="3">
+        <v>144484638910</v>
+      </c>
+      <c r="H2551" s="3">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="I2551">
+        <v>3</v>
+      </c>
+      <c r="J2551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2552" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B2552" s="3">
+        <v>6020.8212000000003</v>
+      </c>
+      <c r="C2552" s="3">
+        <v>23.159200668334961</v>
+      </c>
+      <c r="D2552" s="3">
+        <v>1.8236000537872314</v>
+      </c>
+      <c r="E2552">
+        <v>1.6791383188612246</v>
+      </c>
+      <c r="F2552" s="3">
+        <v>10412904100</v>
+      </c>
+      <c r="G2552" s="3">
+        <v>142198505817</v>
+      </c>
+      <c r="H2552" s="3">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="I2552">
+        <v>3</v>
+      </c>
+      <c r="J2552">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2553" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B2553" s="3">
+        <v>5988.5524999999998</v>
+      </c>
+      <c r="C2553" s="3">
+        <v>23.029199600219727</v>
+      </c>
+      <c r="D2553" s="3">
+        <v>1.8151999711990356</v>
+      </c>
+      <c r="E2553">
+        <v>1.6999133124889796</v>
+      </c>
+      <c r="F2553" s="3">
+        <v>9396503800</v>
+      </c>
+      <c r="G2553" s="3">
+        <v>131979482563</v>
+      </c>
+      <c r="H2553" s="3">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="I2553">
+        <v>2</v>
+      </c>
+      <c r="J2553">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2554" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B2554" s="3">
+        <v>5961.6057000000001</v>
+      </c>
+      <c r="C2554" s="3">
+        <v>22.950099945068359</v>
+      </c>
+      <c r="D2554" s="3">
+        <v>1.8107000589370728</v>
+      </c>
+      <c r="E2554">
+        <v>1.7189794994075189</v>
+      </c>
+      <c r="F2554" s="3">
+        <v>9411834600</v>
+      </c>
+      <c r="G2554" s="3">
+        <v>121687700019</v>
+      </c>
+      <c r="H2554" s="3">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="I2554">
+        <v>2</v>
+      </c>
+      <c r="J2554">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2555" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B2555" s="3">
+        <v>5984.2813999999998</v>
+      </c>
+      <c r="C2555" s="3">
+        <v>23.04640007019043</v>
+      </c>
+      <c r="D2555" s="3">
+        <v>1.8185000419616699</v>
+      </c>
+      <c r="E2555">
+        <v>1.6955724666515652</v>
+      </c>
+      <c r="F2555" s="3">
+        <v>8516856400</v>
+      </c>
+      <c r="G2555" s="3">
+        <v>113940191970</v>
+      </c>
+      <c r="H2555" s="3">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="I2555">
+        <v>0</v>
+      </c>
+      <c r="J2555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2556" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B2556" s="3">
+        <v>6029.2317999999996</v>
+      </c>
+      <c r="C2556" s="3">
+        <v>23.198699951171875</v>
+      </c>
+      <c r="D2556" s="3">
+        <v>1.8307000398635864</v>
+      </c>
+      <c r="E2556">
+        <v>1.6769863781366134</v>
+      </c>
+      <c r="F2556" s="3">
+        <v>8453189700</v>
+      </c>
+      <c r="G2556" s="3">
+        <v>117919697046</v>
+      </c>
+      <c r="H2556" s="3">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="I2556">
+        <v>6</v>
+      </c>
+      <c r="J2556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2557" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B2557" s="3">
+        <v>5962.7938000000004</v>
+      </c>
+      <c r="C2557" s="3">
+        <v>22.953800201416016</v>
+      </c>
+      <c r="D2557" s="3">
+        <v>1.8104000091552734</v>
+      </c>
+      <c r="E2557">
+        <v>1.71787708625655</v>
+      </c>
+      <c r="F2557" s="3">
+        <v>9669224100</v>
+      </c>
+      <c r="G2557" s="3">
+        <v>134419386323.00002</v>
+      </c>
+      <c r="H2557" s="3">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="I2557">
+        <v>2</v>
+      </c>
+      <c r="J2557">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2558" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B2558" s="3">
+        <v>6044.0582999999997</v>
+      </c>
+      <c r="C2558" s="3">
+        <v>23.244199752807617</v>
+      </c>
+      <c r="D2558" s="3">
+        <v>1.833899974822998</v>
+      </c>
+      <c r="E2558">
+        <v>1.6619485387089403</v>
+      </c>
+      <c r="F2558" s="3">
+        <v>9965639800</v>
+      </c>
+      <c r="G2558" s="3">
+        <v>138941870295</v>
+      </c>
+      <c r="H2558" s="3">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="I2558">
+        <v>5</v>
+      </c>
+      <c r="J2558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2559" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B2559" s="3">
+        <v>6030.5187999999998</v>
+      </c>
+      <c r="C2559" s="3">
+        <v>23.180599212646484</v>
+      </c>
+      <c r="D2559" s="3">
+        <v>1.8299000263214111</v>
+      </c>
+      <c r="E2559">
+        <v>1.6657523306819293</v>
+      </c>
+      <c r="F2559" s="3">
+        <v>9496319700</v>
+      </c>
+      <c r="G2559" s="3">
+        <v>137880575952</v>
+      </c>
+      <c r="H2559" s="3">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I2559">
+        <v>4</v>
+      </c>
+      <c r="J2559">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2560" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B2560" s="3">
+        <v>6012.6895000000004</v>
+      </c>
+      <c r="C2560" s="3">
+        <v>23.125200271606445</v>
+      </c>
+      <c r="D2560" s="3">
+        <v>1.8243000507354736</v>
+      </c>
+      <c r="E2560">
+        <v>1.6880868742971225</v>
+      </c>
+      <c r="F2560" s="3">
+        <v>8842021200</v>
+      </c>
+      <c r="G2560" s="3">
+        <v>124991560881</v>
+      </c>
+      <c r="H2560" s="3">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="I2560">
+        <v>5</v>
+      </c>
+      <c r="J2560">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ZZ500.xlsx
+++ b/Data/ZZ500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4BC0BB-14E9-4F50-B831-C015115B7C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E8553F-74C1-4075-B662-603313622D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43185" yWindow="-8670" windowWidth="21585" windowHeight="11295" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -120,6 +120,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0227A6-6518-472F-8478-AE6AB0E5A537}">
-  <dimension ref="A1:J2560"/>
+  <dimension ref="A1:J2562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2544" workbookViewId="0">
-      <selection activeCell="I2559" sqref="I2559"/>
+    <sheetView tabSelected="1" topLeftCell="A2554" workbookViewId="0">
+      <selection activeCell="H2563" sqref="H2563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -82369,6 +82372,70 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2561" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2561" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B2561" s="3">
+        <v>6001.7997999999998</v>
+      </c>
+      <c r="C2561" s="3">
+        <v>23.089599609375</v>
+      </c>
+      <c r="D2561" s="3">
+        <v>1.8220000267028809</v>
+      </c>
+      <c r="E2561" s="4">
+        <v>1.7047542690985988</v>
+      </c>
+      <c r="F2561" s="3">
+        <v>8771991000</v>
+      </c>
+      <c r="G2561" s="3">
+        <v>121310187887</v>
+      </c>
+      <c r="H2561" s="3">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="I2561">
+        <v>3</v>
+      </c>
+      <c r="J2561">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2562" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B2562" s="3">
+        <v>5993.4125999999997</v>
+      </c>
+      <c r="C2562" s="3">
+        <v>23.080600738525391</v>
+      </c>
+      <c r="D2562" s="3">
+        <v>1.8207999467849731</v>
+      </c>
+      <c r="E2562" s="4">
+        <v>1.7062428602477078</v>
+      </c>
+      <c r="F2562" s="3">
+        <v>7779103400</v>
+      </c>
+      <c r="G2562" s="3">
+        <v>104054562581</v>
+      </c>
+      <c r="H2562" s="3">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="I2562">
+        <v>6</v>
+      </c>
+      <c r="J2562">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ZZ500.xlsx
+++ b/Data/ZZ500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E8553F-74C1-4075-B662-603313622D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD610CE0-E61B-42EC-AD2C-D27A5F1CD7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
+    <workbookView xWindow="3480" yWindow="1005" windowWidth="21600" windowHeight="11295" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0227A6-6518-472F-8478-AE6AB0E5A537}">
-  <dimension ref="A1:J2562"/>
+  <dimension ref="A1:J2565"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2554" workbookViewId="0">
-      <selection activeCell="H2563" sqref="H2563"/>
+      <selection activeCell="I2565" sqref="I2565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -82436,6 +82436,102 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2563" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2563" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B2563" s="3">
+        <v>5925.4843000000001</v>
+      </c>
+      <c r="C2563" s="3">
+        <v>22.836399078369141</v>
+      </c>
+      <c r="D2563" s="3">
+        <v>1.802899956703186</v>
+      </c>
+      <c r="E2563">
+        <v>1.7557740955578658</v>
+      </c>
+      <c r="F2563" s="3">
+        <v>9119536800</v>
+      </c>
+      <c r="G2563" s="3">
+        <v>123684933457</v>
+      </c>
+      <c r="H2563" s="3">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="I2563">
+        <v>2</v>
+      </c>
+      <c r="J2563">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2564" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B2564" s="3">
+        <v>5925.6255000000001</v>
+      </c>
+      <c r="C2564" s="3">
+        <v>22.847299575805664</v>
+      </c>
+      <c r="D2564" s="3">
+        <v>1.8042000532150269</v>
+      </c>
+      <c r="E2564">
+        <v>1.7641848772787063</v>
+      </c>
+      <c r="F2564" s="3">
+        <v>8197530700</v>
+      </c>
+      <c r="G2564" s="3">
+        <v>107065413904</v>
+      </c>
+      <c r="H2564" s="3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="I2564">
+        <v>3</v>
+      </c>
+      <c r="J2564">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2565" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B2565" s="3">
+        <v>5916.7141000000001</v>
+      </c>
+      <c r="C2565" s="3">
+        <v>22.827400207519531</v>
+      </c>
+      <c r="D2565" s="3">
+        <v>1.8026000261306763</v>
+      </c>
+      <c r="E2565">
+        <v>1.7753003465536641</v>
+      </c>
+      <c r="F2565" s="3">
+        <v>7592800100</v>
+      </c>
+      <c r="G2565" s="3">
+        <v>99623302711</v>
+      </c>
+      <c r="H2565" s="3">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="I2565">
+        <v>1</v>
+      </c>
+      <c r="J2565">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ZZ500.xlsx
+++ b/Data/ZZ500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD610CE0-E61B-42EC-AD2C-D27A5F1CD7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6BB0FD-C4FD-4399-8F98-47245614A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1005" windowWidth="21600" windowHeight="11295" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0227A6-6518-472F-8478-AE6AB0E5A537}">
-  <dimension ref="A1:J2565"/>
+  <dimension ref="A1:J2582"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2554" workbookViewId="0">
-      <selection activeCell="I2565" sqref="I2565"/>
+      <selection activeCell="M2580" sqref="M2580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -82532,6 +82532,550 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2566" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2566" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B2566">
+        <v>6016.6311999999998</v>
+      </c>
+      <c r="C2566">
+        <v>23.188999176025391</v>
+      </c>
+      <c r="D2566">
+        <v>1.8312000036239624</v>
+      </c>
+      <c r="E2566">
+        <v>1.6527896482513071</v>
+      </c>
+      <c r="F2566">
+        <v>13189639200</v>
+      </c>
+      <c r="G2566">
+        <v>145732847142</v>
+      </c>
+      <c r="H2566">
+        <v>1.1431</v>
+      </c>
+      <c r="I2566">
+        <v>6</v>
+      </c>
+      <c r="J2566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2567" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B2567">
+        <v>6001.5402000000004</v>
+      </c>
+      <c r="C2567">
+        <v>23.142299652099609</v>
+      </c>
+      <c r="D2567">
+        <v>1.8282999992370605</v>
+      </c>
+      <c r="E2567">
+        <v>1.675091745561569</v>
+      </c>
+      <c r="F2567">
+        <v>12182521900</v>
+      </c>
+      <c r="G2567">
+        <v>120547387600</v>
+      </c>
+      <c r="H2567">
+        <v>1.0558000000000001</v>
+      </c>
+      <c r="I2567">
+        <v>5</v>
+      </c>
+      <c r="J2567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2568" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B2568">
+        <v>5961.1842999999999</v>
+      </c>
+      <c r="C2568">
+        <v>23.00309944152832</v>
+      </c>
+      <c r="D2568">
+        <v>1.8102999925613403</v>
+      </c>
+      <c r="E2568">
+        <v>1.711940260130616</v>
+      </c>
+      <c r="F2568">
+        <v>12300082500</v>
+      </c>
+      <c r="G2568">
+        <v>117272101565</v>
+      </c>
+      <c r="H2568">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="I2568">
+        <v>3</v>
+      </c>
+      <c r="J2568">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2569" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B2569">
+        <v>6043.2438000000002</v>
+      </c>
+      <c r="C2569">
+        <v>23.31879997253418</v>
+      </c>
+      <c r="D2569">
+        <v>1.8356000185012817</v>
+      </c>
+      <c r="E2569">
+        <v>1.6365853422038881</v>
+      </c>
+      <c r="F2569">
+        <v>16317187100</v>
+      </c>
+      <c r="G2569">
+        <v>149147477700</v>
+      </c>
+      <c r="H2569">
+        <v>1.4140999999999999</v>
+      </c>
+      <c r="I2569">
+        <v>20</v>
+      </c>
+      <c r="J2569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2570" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B2570">
+        <v>6088.2430999999997</v>
+      </c>
+      <c r="C2570">
+        <v>23.554500579833984</v>
+      </c>
+      <c r="D2570">
+        <v>1.8487999439239502</v>
+      </c>
+      <c r="E2570">
+        <v>1.581173159622594</v>
+      </c>
+      <c r="F2570">
+        <v>18655110300</v>
+      </c>
+      <c r="G2570">
+        <v>179595743483</v>
+      </c>
+      <c r="H2570">
+        <v>1.6148</v>
+      </c>
+      <c r="I2570">
+        <v>18</v>
+      </c>
+      <c r="J2570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2571" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B2571" s="3">
+        <v>6098.8788999999997</v>
+      </c>
+      <c r="C2571" s="3">
+        <v>23.586599349975586</v>
+      </c>
+      <c r="D2571" s="3">
+        <v>1.8581999540328979</v>
+      </c>
+      <c r="E2571">
+        <v>1.5851955371230111</v>
+      </c>
+      <c r="F2571">
+        <v>18758860000</v>
+      </c>
+      <c r="G2571">
+        <v>166628364700</v>
+      </c>
+      <c r="H2571">
+        <v>1.6237999999999999</v>
+      </c>
+      <c r="I2571">
+        <v>13</v>
+      </c>
+      <c r="J2571">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2572" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B2572" s="3">
+        <v>6077.4645</v>
+      </c>
+      <c r="C2572" s="3">
+        <v>23.510200500488281</v>
+      </c>
+      <c r="D2572" s="3">
+        <v>1.8518999814987183</v>
+      </c>
+      <c r="E2572">
+        <v>1.6012728701238896</v>
+      </c>
+      <c r="F2572">
+        <v>14715452900</v>
+      </c>
+      <c r="G2572">
+        <v>135758673345</v>
+      </c>
+      <c r="H2572">
+        <v>1.2737000000000001</v>
+      </c>
+      <c r="I2572">
+        <v>11</v>
+      </c>
+      <c r="J2572">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2573" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B2573" s="3">
+        <v>6098.6868000000004</v>
+      </c>
+      <c r="C2573" s="3">
+        <v>23.586799621582031</v>
+      </c>
+      <c r="D2573" s="3">
+        <v>1.8590999841690063</v>
+      </c>
+      <c r="E2573">
+        <v>1.5946595385708684</v>
+      </c>
+      <c r="F2573">
+        <v>14647901100</v>
+      </c>
+      <c r="G2573">
+        <v>138777463930</v>
+      </c>
+      <c r="H2573">
+        <v>1.2679</v>
+      </c>
+      <c r="I2573">
+        <v>21</v>
+      </c>
+      <c r="J2573">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2574" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B2574" s="3">
+        <v>6128.5559999999996</v>
+      </c>
+      <c r="C2574" s="3">
+        <v>23.655399322509766</v>
+      </c>
+      <c r="D2574" s="3">
+        <v>1.8667999505996704</v>
+      </c>
+      <c r="E2574">
+        <v>1.5791646974474451</v>
+      </c>
+      <c r="F2574">
+        <v>19694350100</v>
+      </c>
+      <c r="G2574">
+        <v>186850093569</v>
+      </c>
+      <c r="H2574">
+        <v>1.7047000000000001</v>
+      </c>
+      <c r="I2574">
+        <v>21</v>
+      </c>
+      <c r="J2574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2575" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B2575" s="3">
+        <v>6090.7307000000001</v>
+      </c>
+      <c r="C2575" s="3">
+        <v>23.504899978637695</v>
+      </c>
+      <c r="D2575" s="3">
+        <v>1.8544000387191772</v>
+      </c>
+      <c r="E2575">
+        <v>1.6078320584594903</v>
+      </c>
+      <c r="F2575">
+        <v>14531913700</v>
+      </c>
+      <c r="G2575">
+        <v>154416328543</v>
+      </c>
+      <c r="H2575">
+        <v>1.2578</v>
+      </c>
+      <c r="I2575">
+        <v>14</v>
+      </c>
+      <c r="J2575">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2576" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B2576" s="3">
+        <v>6066.1018999999997</v>
+      </c>
+      <c r="C2576" s="3">
+        <v>23.401899337768555</v>
+      </c>
+      <c r="D2576" s="3">
+        <v>1.8467999696731567</v>
+      </c>
+      <c r="E2576">
+        <v>1.6252574286625965</v>
+      </c>
+      <c r="F2576">
+        <v>12154572800</v>
+      </c>
+      <c r="G2576">
+        <v>131357351526</v>
+      </c>
+      <c r="H2576">
+        <v>1.0521</v>
+      </c>
+      <c r="I2576">
+        <v>4</v>
+      </c>
+      <c r="J2576">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2577" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B2577" s="3">
+        <v>6021.7506000000003</v>
+      </c>
+      <c r="C2577" s="3">
+        <v>23.245800018310547</v>
+      </c>
+      <c r="D2577" s="3">
+        <v>1.8345999717712402</v>
+      </c>
+      <c r="E2577">
+        <v>1.6546523742452712</v>
+      </c>
+      <c r="F2577">
+        <v>9880917400</v>
+      </c>
+      <c r="G2577">
+        <v>116294678354</v>
+      </c>
+      <c r="H2577">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="I2577">
+        <v>1</v>
+      </c>
+      <c r="J2577">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2578" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B2578" s="3">
+        <v>6031.7105000000001</v>
+      </c>
+      <c r="C2578" s="3">
+        <v>23.326099395751953</v>
+      </c>
+      <c r="D2578" s="3">
+        <v>1.8396999835968018</v>
+      </c>
+      <c r="E2578">
+        <v>1.6374433801808954</v>
+      </c>
+      <c r="F2578">
+        <v>9984263800</v>
+      </c>
+      <c r="G2578">
+        <v>103950301369</v>
+      </c>
+      <c r="H2578">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I2578">
+        <v>3</v>
+      </c>
+      <c r="J2578">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2579" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B2579" s="3">
+        <v>5913.3501999999999</v>
+      </c>
+      <c r="C2579" s="3">
+        <v>22.885799407958984</v>
+      </c>
+      <c r="D2579" s="3">
+        <v>1.8041000366210938</v>
+      </c>
+      <c r="E2579">
+        <v>1.7217218251901238</v>
+      </c>
+      <c r="F2579">
+        <v>11307200700</v>
+      </c>
+      <c r="G2579">
+        <v>115393420336</v>
+      </c>
+      <c r="H2579">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="I2579">
+        <v>0</v>
+      </c>
+      <c r="J2579">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2580" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B2580" s="3">
+        <v>5916.8028999999997</v>
+      </c>
+      <c r="C2580" s="3">
+        <v>22.949199676513672</v>
+      </c>
+      <c r="D2580" s="3">
+        <v>1.8059999942779541</v>
+      </c>
+      <c r="E2580">
+        <v>1.7317504300618598</v>
+      </c>
+      <c r="F2580">
+        <v>10367570600</v>
+      </c>
+      <c r="G2580">
+        <v>116321082192</v>
+      </c>
+      <c r="H2580">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="I2580">
+        <v>1</v>
+      </c>
+      <c r="J2580">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2581" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B2581" s="3">
+        <v>5879.7781999999997</v>
+      </c>
+      <c r="C2581" s="3">
+        <v>22.857400894165039</v>
+      </c>
+      <c r="D2581" s="3">
+        <v>1.7960000038146973</v>
+      </c>
+      <c r="E2581">
+        <v>1.7994506106587851</v>
+      </c>
+      <c r="F2581">
+        <v>9241738100</v>
+      </c>
+      <c r="G2581">
+        <v>107626210842</v>
+      </c>
+      <c r="H2581">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="I2581">
+        <v>3</v>
+      </c>
+      <c r="J2581">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2582" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B2582" s="3">
+        <v>5833.2155000000002</v>
+      </c>
+      <c r="C2582" s="3">
+        <v>22.690799713134766</v>
+      </c>
+      <c r="D2582" s="3">
+        <v>1.7818000316619873</v>
+      </c>
+      <c r="E2582">
+        <v>4.4070725256154875</v>
+      </c>
+      <c r="F2582">
+        <v>10495042500</v>
+      </c>
+      <c r="G2582">
+        <v>114013689400</v>
+      </c>
+      <c r="H2582">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="I2582">
+        <v>3</v>
+      </c>
+      <c r="J2582">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ZZ500.xlsx
+++ b/Data/ZZ500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richy\Documents\Stock_Index\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6BB0FD-C4FD-4399-8F98-47245614A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1017F1E-16BA-4D09-B2AD-523FD2362D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
+    <workbookView xWindow="-57720" yWindow="-15990" windowWidth="38640" windowHeight="21120" xr2:uid="{EFF7461F-A3B8-4CCE-A548-3A02D4ACB399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0227A6-6518-472F-8478-AE6AB0E5A537}">
-  <dimension ref="A1:J2582"/>
+  <dimension ref="A1:J2600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2554" workbookViewId="0">
-      <selection activeCell="M2580" sqref="M2580"/>
+    <sheetView tabSelected="1" topLeftCell="A2525" workbookViewId="0">
+      <selection activeCell="N2596" sqref="N2596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -83057,8 +83057,8 @@
       <c r="D2582" s="3">
         <v>1.7818000316619873</v>
       </c>
-      <c r="E2582">
-        <v>4.4070725256154875</v>
+      <c r="E2582" s="3">
+        <v>1.8449725256154874</v>
       </c>
       <c r="F2582">
         <v>10495042500</v>
@@ -83075,6 +83075,556 @@
       <c r="J2582">
         <v>57</v>
       </c>
+    </row>
+    <row r="2583" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2583" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B2583" s="3">
+        <v>5874.3608999999997</v>
+      </c>
+      <c r="C2583" s="3">
+        <v>22.846599578857422</v>
+      </c>
+      <c r="D2583" s="3">
+        <v>1.7927000522613525</v>
+      </c>
+      <c r="E2583" s="3">
+        <v>1.8070189806513466</v>
+      </c>
+      <c r="F2583" s="3">
+        <v>11357638400</v>
+      </c>
+      <c r="G2583" s="3">
+        <v>120852973477</v>
+      </c>
+      <c r="H2583" s="3">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="I2583">
+        <v>1</v>
+      </c>
+      <c r="J2583">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2584" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B2584" s="3">
+        <v>5777.7972</v>
+      </c>
+      <c r="C2584" s="3">
+        <v>22.526399612426758</v>
+      </c>
+      <c r="D2584" s="3">
+        <v>1.7648999691009521</v>
+      </c>
+      <c r="E2584" s="3">
+        <v>1.8715358175531382</v>
+      </c>
+      <c r="F2584" s="3">
+        <v>10293184500</v>
+      </c>
+      <c r="G2584" s="3">
+        <v>109766358594</v>
+      </c>
+      <c r="H2584" s="3">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="I2584">
+        <v>1</v>
+      </c>
+      <c r="J2584">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2585" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B2585" s="3">
+        <v>5710.7782999999999</v>
+      </c>
+      <c r="C2585" s="3">
+        <v>22.342199325561523</v>
+      </c>
+      <c r="D2585" s="3">
+        <v>1.7417999505996704</v>
+      </c>
+      <c r="E2585" s="3">
+        <v>1.9315351021240259</v>
+      </c>
+      <c r="F2585" s="3">
+        <v>9283569800</v>
+      </c>
+      <c r="G2585" s="3">
+        <v>96691987126</v>
+      </c>
+      <c r="H2585" s="3">
+        <v>0.80289999999999995</v>
+      </c>
+      <c r="I2585">
+        <v>1</v>
+      </c>
+      <c r="J2585">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2586" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B2586" s="3">
+        <v>5741.0605999999998</v>
+      </c>
+      <c r="C2586" s="3">
+        <v>22.502599716186523</v>
+      </c>
+      <c r="D2586" s="3">
+        <v>1.7482000589370728</v>
+      </c>
+      <c r="E2586" s="3">
+        <v>1.8938309795866926</v>
+      </c>
+      <c r="F2586" s="3">
+        <v>10617519300</v>
+      </c>
+      <c r="G2586" s="3">
+        <v>120035178924</v>
+      </c>
+      <c r="H2586" s="3">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="I2586">
+        <v>3</v>
+      </c>
+      <c r="J2586">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2587" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B2587" s="3">
+        <v>5629.4998999999998</v>
+      </c>
+      <c r="C2587" s="3">
+        <v>22.135000228881836</v>
+      </c>
+      <c r="D2587" s="3">
+        <v>1.7211999893188477</v>
+      </c>
+      <c r="E2587" s="3">
+        <v>1.9626320517719988</v>
+      </c>
+      <c r="F2587" s="3">
+        <v>9418672500</v>
+      </c>
+      <c r="G2587" s="3">
+        <v>101871329163</v>
+      </c>
+      <c r="H2587" s="3">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="I2587">
+        <v>1</v>
+      </c>
+      <c r="J2587">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2588" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B2588" s="3">
+        <v>5652.6728999999996</v>
+      </c>
+      <c r="C2588" s="3">
+        <v>22.178800582885742</v>
+      </c>
+      <c r="D2588" s="3">
+        <v>1.723099946975708</v>
+      </c>
+      <c r="E2588" s="3">
+        <v>1.9540100966634295</v>
+      </c>
+      <c r="F2588" s="3">
+        <v>10808677100</v>
+      </c>
+      <c r="G2588" s="3">
+        <v>120640882888</v>
+      </c>
+      <c r="H2588" s="3">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="I2588">
+        <v>0</v>
+      </c>
+      <c r="J2588">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2589" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B2589" s="3">
+        <v>5581.2115999999996</v>
+      </c>
+      <c r="C2589" s="3">
+        <v>22.003700256347656</v>
+      </c>
+      <c r="D2589" s="3">
+        <v>1.6993999481201172</v>
+      </c>
+      <c r="E2589" s="3">
+        <v>1.9741901582451735</v>
+      </c>
+      <c r="F2589" s="3">
+        <v>10624160200</v>
+      </c>
+      <c r="G2589" s="3">
+        <v>114730298316</v>
+      </c>
+      <c r="H2589" s="3">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="I2589">
+        <v>3</v>
+      </c>
+      <c r="J2589">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2590" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B2590" s="3">
+        <v>5644.1405000000004</v>
+      </c>
+      <c r="C2590" s="3">
+        <v>22.343000411987305</v>
+      </c>
+      <c r="D2590" s="3">
+        <v>1.711899995803833</v>
+      </c>
+      <c r="E2590" s="3">
+        <v>1.8878746254343137</v>
+      </c>
+      <c r="F2590" s="3">
+        <v>18574561900</v>
+      </c>
+      <c r="G2590" s="3">
+        <v>181457042375</v>
+      </c>
+      <c r="H2590" s="3">
+        <v>1.6031</v>
+      </c>
+      <c r="I2590">
+        <v>3</v>
+      </c>
+      <c r="J2590">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2591" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B2591" s="3">
+        <v>5770.3154999999997</v>
+      </c>
+      <c r="C2591" s="3">
+        <v>22.827400207519531</v>
+      </c>
+      <c r="D2591" s="3">
+        <v>1.7431000471115112</v>
+      </c>
+      <c r="E2591" s="3">
+        <v>1.8107003465536642</v>
+      </c>
+      <c r="F2591" s="3">
+        <v>16085189500</v>
+      </c>
+      <c r="G2591" s="3">
+        <v>165476278767</v>
+      </c>
+      <c r="H2591" s="3">
+        <v>1.3884000000000001</v>
+      </c>
+      <c r="I2591">
+        <v>5</v>
+      </c>
+      <c r="J2591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2592" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B2592" s="3">
+        <v>5775.1534000000001</v>
+      </c>
+      <c r="C2592" s="3">
+        <v>23.138799667358398</v>
+      </c>
+      <c r="D2592" s="3">
+        <v>1.7375999689102173</v>
+      </c>
+      <c r="E2592" s="3">
+        <v>1.7592453557484529</v>
+      </c>
+      <c r="F2592" s="3">
+        <v>13600438400</v>
+      </c>
+      <c r="G2592" s="3">
+        <v>145078565406</v>
+      </c>
+      <c r="H2592" s="3">
+        <v>1.1738999999999999</v>
+      </c>
+      <c r="I2592">
+        <v>4</v>
+      </c>
+      <c r="J2592">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2593" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B2593" s="3">
+        <v>5739.3984</v>
+      </c>
+      <c r="C2593" s="3">
+        <v>23.623600006103516</v>
+      </c>
+      <c r="D2593" s="3">
+        <v>1.7211999893188477</v>
+      </c>
+      <c r="E2593" s="3">
+        <v>1.6789550794190333</v>
+      </c>
+      <c r="F2593" s="3">
+        <v>11633513400</v>
+      </c>
+      <c r="G2593" s="3">
+        <v>121252796161</v>
+      </c>
+      <c r="H2593" s="3">
+        <v>1.0043</v>
+      </c>
+      <c r="I2593">
+        <v>1</v>
+      </c>
+      <c r="J2593">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2594" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B2594" s="3">
+        <v>5750.8027000000002</v>
+      </c>
+      <c r="C2594" s="3">
+        <v>23.667699813842773</v>
+      </c>
+      <c r="D2594" s="3">
+        <v>1.7242000102996826</v>
+      </c>
+      <c r="E2594" s="3">
+        <v>1.6426676667587254</v>
+      </c>
+      <c r="F2594" s="3">
+        <v>10417910300</v>
+      </c>
+      <c r="G2594" s="3">
+        <v>107061408581</v>
+      </c>
+      <c r="H2594" s="3">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="I2594">
+        <v>3</v>
+      </c>
+      <c r="J2594">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2595" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B2595" s="3">
+        <v>5829.7839999999997</v>
+      </c>
+      <c r="C2595" s="3">
+        <v>23.974599838256836</v>
+      </c>
+      <c r="D2595" s="3">
+        <v>1.7465000152587891</v>
+      </c>
+      <c r="E2595" s="3">
+        <v>1.5585810889292775</v>
+      </c>
+      <c r="F2595" s="3">
+        <v>13564887300</v>
+      </c>
+      <c r="G2595" s="3">
+        <v>135994054181</v>
+      </c>
+      <c r="H2595" s="3">
+        <v>1.171</v>
+      </c>
+      <c r="I2595">
+        <v>8</v>
+      </c>
+      <c r="J2595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2596" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B2596" s="3">
+        <v>5788.7148999999999</v>
+      </c>
+      <c r="C2596" s="3">
+        <v>23.814899444580078</v>
+      </c>
+      <c r="D2596" s="3">
+        <v>1.7348999977111816</v>
+      </c>
+      <c r="E2596" s="3">
+        <v>1.5880519520231915</v>
+      </c>
+      <c r="F2596" s="3">
+        <v>10651765800</v>
+      </c>
+      <c r="G2596" s="3">
+        <v>114971726103</v>
+      </c>
+      <c r="H2596" s="3">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="I2596">
+        <v>4</v>
+      </c>
+      <c r="J2596">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2597" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B2597" s="3">
+        <v>5790.3806000000004</v>
+      </c>
+      <c r="C2597" s="3">
+        <v>23.819000244140625</v>
+      </c>
+      <c r="D2597" s="3">
+        <v>1.7351000308990479</v>
+      </c>
+      <c r="E2597" s="3">
+        <v>1.563329021999972</v>
+      </c>
+      <c r="F2597" s="3">
+        <v>9048050200</v>
+      </c>
+      <c r="G2597" s="3">
+        <v>106512753385</v>
+      </c>
+      <c r="H2597" s="3">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="I2597">
+        <v>4</v>
+      </c>
+      <c r="J2597">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2598" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B2598" s="3">
+        <v>5702.7007999999996</v>
+      </c>
+      <c r="C2598" s="3">
+        <v>23.482599258422852</v>
+      </c>
+      <c r="D2598" s="3">
+        <v>1.7106000185012817</v>
+      </c>
+      <c r="E2598" s="3">
+        <v>1.6159723649845326</v>
+      </c>
+      <c r="F2598" s="3">
+        <v>9292051800</v>
+      </c>
+      <c r="G2598" s="3">
+        <v>105713167276</v>
+      </c>
+      <c r="H2598" s="3">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="I2598">
+        <v>3</v>
+      </c>
+      <c r="J2598">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2599" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B2599" s="3">
+        <v>5708.6226999999999</v>
+      </c>
+      <c r="C2599" s="3">
+        <v>23.508600234985352</v>
+      </c>
+      <c r="D2599" s="3">
+        <v>1.7124999761581421</v>
+      </c>
+      <c r="E2599" s="3">
+        <v>1.6162624103701688</v>
+      </c>
+      <c r="F2599" s="3">
+        <v>7952002800</v>
+      </c>
+      <c r="G2599" s="3">
+        <v>93059123325</v>
+      </c>
+      <c r="H2599" s="3">
+        <v>0.68640000000000001</v>
+      </c>
+      <c r="I2599">
+        <v>3</v>
+      </c>
+      <c r="J2599">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2600" s="2"/>
+      <c r="B2600" s="3"/>
+      <c r="C2600" s="3"/>
+      <c r="D2600" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
